--- a/Data/Export/Common/TroopType_部队类型.xlsx
+++ b/Data/Export/Common/TroopType_部队类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF55DF-EBBB-46CF-94DB-B1BB572D4293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB8746-2E5F-4117-B89F-83E8388F2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="2130" windowWidth="17235" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,14 +321,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>influenceAbility</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>durabilityDmg</t>
@@ -1274,7 +1268,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1328,52 +1322,52 @@
         <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>47</v>
@@ -1464,52 +1458,52 @@
         <v>45</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="W3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>50</v>
@@ -1606,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>55</v>
@@ -1641,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>66</v>
@@ -1700,10 +1694,10 @@
         <v>27</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>61</v>
@@ -1716,16 +1710,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1749,10 +1743,10 @@
         <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1781,10 +1775,10 @@
         <v>28</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF6" s="2" t="s">
         <v>60</v>
@@ -1796,16 +1790,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1829,10 +1823,10 @@
         <v>68</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1861,10 +1855,10 @@
         <v>29</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>57</v>
@@ -1876,16 +1870,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1909,10 +1903,10 @@
         <v>69</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1941,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>59</v>
@@ -1956,16 +1950,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1989,10 +1983,10 @@
         <v>70</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2021,10 +2015,10 @@
         <v>31</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>58</v>
@@ -2093,7 +2087,7 @@
         <v>39</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG10" s="4"/>
     </row>
@@ -2159,7 +2153,7 @@
         <v>40</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG11" s="4"/>
     </row>
@@ -2174,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2186,7 +2180,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J12" s="4">
         <v>24</v>
@@ -2194,10 +2188,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2226,10 +2220,10 @@
         <v>36</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AG12" s="4"/>
     </row>
@@ -2244,10 +2238,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2256,7 +2250,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J13" s="4">
         <v>26</v>
@@ -2264,13 +2258,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2299,10 +2293,10 @@
         <v>37</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AG13" s="4"/>
     </row>
@@ -2317,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2329,7 +2323,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J14" s="4">
         <v>28</v>
@@ -2337,13 +2331,13 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2372,10 +2366,10 @@
         <v>38</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG14" s="4"/>
     </row>
@@ -2384,16 +2378,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2402,7 +2396,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J15" s="4">
         <v>16</v>
@@ -2413,13 +2407,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2448,10 +2442,10 @@
         <v>32</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>58</v>
@@ -2463,16 +2457,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2481,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J16" s="4">
         <v>16</v>
@@ -2492,13 +2486,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2527,10 +2521,10 @@
         <v>35</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>57</v>
@@ -2548,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2560,7 +2554,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2571,13 +2565,13 @@
         <v>71</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2606,10 +2600,10 @@
         <v>33</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>58</v>
@@ -2627,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2639,7 +2633,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J18" s="4">
         <v>16</v>
@@ -2650,13 +2644,13 @@
         <v>71</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2685,10 +2679,10 @@
         <v>34</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>58</v>
@@ -2700,32 +2694,32 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>VLOOKUP(D19,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
@@ -2736,32 +2730,32 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>VLOOKUP(D20,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
@@ -2772,32 +2766,32 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>VLOOKUP(D21,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
@@ -2808,32 +2802,32 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ref="E22:E30" si="0">VLOOKUP(D22,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
@@ -2844,32 +2838,32 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
@@ -2880,32 +2874,32 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>VLOOKUP(D24,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
@@ -2916,26 +2910,26 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
@@ -2944,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
@@ -2955,26 +2949,26 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
@@ -2983,7 +2977,7 @@
         <v>70</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
@@ -2994,26 +2988,26 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J27" s="4">
         <v>28</v>
@@ -3022,7 +3016,7 @@
         <v>70</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
@@ -3033,26 +3027,26 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>骑兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J28" s="4">
         <v>28</v>
@@ -3061,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
@@ -3074,35 +3068,35 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AG29" s="4"/>
@@ -3112,35 +3106,35 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.15">
@@ -3152,145 +3146,45 @@
       <c r="AG39" s="4"/>
     </row>
     <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="4">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="4">
-        <v>7</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>50</v>
-      </c>
-      <c r="I40" s="4">
-        <v>30</v>
-      </c>
-      <c r="J40" s="4">
-        <v>20</v>
-      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-      <c r="T40" s="4">
-        <v>0</v>
-      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="4">
-        <v>1</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="W40" s="4"/>
+      <c r="AC40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B41" s="4">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="4">
-        <v>7</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>50</v>
-      </c>
-      <c r="I41" s="4">
-        <v>30</v>
-      </c>
-      <c r="J41" s="4">
-        <v>20</v>
-      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="4">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="W41" s="4"/>
+      <c r="AC41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.15">

--- a/Data/Export/Common/TroopType_部队类型.xlsx
+++ b/Data/Export/Common/TroopType_部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB8746-2E5F-4117-B89F-83E8388F2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB2F8A-F527-4B7F-932D-EDC42EACC6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="2130" windowWidth="17235" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="195">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,9 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>terrainCost</t>
-  </si>
-  <si>
     <t>地形移动花费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,13 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-  </si>
-  <si>
-    <t>99,4,4,5,5,4,6,4,4,4,4,3,6,4,4,4,4,1,1,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,6 +756,25 @@
   </si>
   <si>
     <t>4845_7_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>extraMoveCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,4,0,0,0,0,0,0,0,0,0,0,0,0,0,3,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵在森林和小径移动消耗增至10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,13 +1271,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="Z5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,14 +1302,15 @@
     <col min="24" max="25" width="16.625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="76.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="55.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="45.125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="41.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
+    <col min="29" max="29" width="33.625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="55.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="45.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="41.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1313,7 +1323,7 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>41</v>
@@ -1322,52 +1332,52 @@
         <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>47</v>
@@ -1379,24 +1389,25 @@
         <v>49</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="6"/>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1427,14 +1438,15 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2"/>
-      <c r="AD2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1461,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>44</v>
@@ -1458,52 +1470,52 @@
         <v>45</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="W3" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>50</v>
@@ -1515,24 +1527,25 @@
         <v>52</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-    </row>
-    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI3" s="7"/>
+    </row>
+    <row r="4" spans="1:35" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>55</v>
@@ -1615,36 +1628,39 @@
         <v>55</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4">
         <v>65</v>
@@ -1656,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1665,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1688,38 +1704,38 @@
         <v>53</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="AE5" s="2" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="AF5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1731,7 +1747,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1740,13 +1756,13 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1769,37 +1785,37 @@
         <v>53</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="AE6" s="2" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="AF6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1811,7 +1827,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -1820,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1849,37 +1865,37 @@
         <v>53</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="AE7" s="2" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="AF7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1891,7 +1907,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1900,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1929,37 +1945,37 @@
         <v>53</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="AE8" s="2" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="AF8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1980,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2009,23 +2025,26 @@
         <v>53</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="AE9" s="2" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="AF9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -2058,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2081,17 +2100,17 @@
         <v>53</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -2124,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2147,17 +2166,17 @@
         <v>53</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2168,10 +2187,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2180,18 +2199,18 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J12" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2214,20 +2233,20 @@
         <v>54</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="AE12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2238,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2250,21 +2269,21 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J13" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2287,20 +2306,20 @@
         <v>54</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="AE13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2311,10 +2330,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2323,21 +2342,21 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2360,34 +2379,34 @@
         <v>54</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="AE14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2396,24 +2415,24 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J15" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2436,37 +2455,37 @@
         <v>53</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD15" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="AE15" s="2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AF15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2475,24 +2494,24 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J16" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2515,23 +2534,23 @@
         <v>53</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD16" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="AE16" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="AF16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2542,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2554,24 +2573,24 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J17" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2594,23 +2613,23 @@
         <v>53</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD17" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="AE17" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AF17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2621,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2633,24 +2652,24 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J18" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2673,479 +2692,551 @@
         <v>53</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD18" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="AE18" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AF18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>VLOOKUP(D19,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB19" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>VLOOKUP(D20,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>VLOOKUP(D21,$D$6:$E$9,2,0)</f>
-        <v>枪兵</v>
+        <v>刀兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ref="E22:E30" si="0">VLOOKUP(D22,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>VLOOKUP(D24,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>枪兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB24" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J27" s="4">
         <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>骑兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J28" s="4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
       </c>
-      <c r="AC28" s="4"/>
-      <c r="AG28" s="4"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AB28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC29" s="4"/>
-      <c r="AG29" s="4"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AH29" s="4"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>枪兵</v>
+        <v>弓兵</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AG39" s="4"/>
-    </row>
-    <row r="40" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD39" s="4"/>
+      <c r="AH39" s="4"/>
+    </row>
+    <row r="40" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3163,10 +3254,10 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AG40" s="4"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD40" s="4"/>
+      <c r="AH40" s="4"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3184,162 +3275,162 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AG41" s="4"/>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD41" s="4"/>
+      <c r="AH41" s="4"/>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD42" s="4"/>
+      <c r="AH42" s="4"/>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AG43" s="4"/>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD43" s="4"/>
+      <c r="AH43" s="4"/>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AG44" s="4"/>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD44" s="4"/>
+      <c r="AH44" s="4"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AG45" s="4"/>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD45" s="4"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AG46" s="4"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD46" s="4"/>
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AG47" s="4"/>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AD47" s="4"/>
+      <c r="AH47" s="4"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AG48" s="4"/>
-    </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD48" s="4"/>
+      <c r="AH48" s="4"/>
+    </row>
+    <row r="49" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="AC49" s="4"/>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD49" s="4"/>
+    </row>
+    <row r="50" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="AC50" s="4"/>
-    </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD50" s="4"/>
+    </row>
+    <row r="51" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="AC51" s="4"/>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="AC52" s="4"/>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD52" s="4"/>
+    </row>
+    <row r="53" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="AC53" s="4"/>
-    </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD53" s="4"/>
+    </row>
+    <row r="54" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="AC54" s="4"/>
-    </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="AC55" s="4"/>
-    </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="AC56" s="4"/>
-    </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="AC57" s="4"/>
-    </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="AC58" s="4"/>
-    </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="AC59" s="4"/>
-    </row>
-    <row r="60" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD59" s="4"/>
+    </row>
+    <row r="60" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="AC60" s="4"/>
-    </row>
-    <row r="61" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="AC61" s="4"/>
-    </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD61" s="4"/>
+    </row>
+    <row r="62" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="AC62" s="4"/>
-    </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD62" s="4"/>
+    </row>
+    <row r="63" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="AC63" s="4"/>
-    </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD63" s="4"/>
+    </row>
+    <row r="64" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="AC64" s="4"/>
-    </row>
-    <row r="65" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="AC65" s="4"/>
-    </row>
-    <row r="66" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD65" s="4"/>
+    </row>
+    <row r="66" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="AC66" s="4"/>
-    </row>
-    <row r="67" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="AC67" s="4"/>
-    </row>
-    <row r="68" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD67" s="4"/>
+    </row>
+    <row r="68" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="AC68" s="4"/>
-    </row>
-    <row r="69" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="AC69" s="4"/>
-    </row>
-    <row r="70" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD69" s="4"/>
+    </row>
+    <row r="70" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="AC70" s="4"/>
-    </row>
-    <row r="71" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AD70" s="4"/>
+    </row>
+    <row r="71" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/TroopType_部队类型.xlsx
+++ b/Data/Export/Common/TroopType_部队类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB2F8A-F527-4B7F-932D-EDC42EACC6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20E8E5-8CD4-40FE-9138-6D4E32AFD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="199">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +401,6 @@
     <t>costItems</t>
   </si>
   <si>
-    <t>刀兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杂兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,6 +768,29 @@
   <si>
     <t>骑兵在森林和小径移动消耗增至10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambushCriticalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戟兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏兵计略暴击率加成</t>
   </si>
 </sst>
 </file>
@@ -1271,13 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AI71"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Z5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC31" sqref="AC31"/>
+      <selection pane="bottomRight" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,16 +1316,17 @@
     <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="16.625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="76.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="55.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="45.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="41.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="2"/>
+    <col min="28" max="28" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="76.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="55.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="41.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1332,7 +1348,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>43</v>
@@ -1347,16 +1363,16 @@
         <v>64</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>90</v>
@@ -1388,26 +1404,29 @@
       <c r="AA1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="6"/>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1439,14 +1458,15 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-      <c r="AD2"/>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1485,16 +1505,16 @@
         <v>73</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>81</v>
@@ -1527,25 +1547,28 @@
         <v>52</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
-    </row>
-    <row r="4" spans="1:35" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1627,37 +1650,40 @@
       <c r="AA4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="AF4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>65</v>
@@ -1704,23 +1730,26 @@
         <v>53</v>
       </c>
       <c r="AB5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="AF5" s="2" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="AG5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1735,7 +1764,7 @@
         <v>94</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1759,10 +1788,10 @@
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1785,37 +1814,40 @@
         <v>53</v>
       </c>
       <c r="AB6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="AF6" s="2" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="AG6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1839,10 +1871,10 @@
         <v>67</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1865,37 +1897,40 @@
         <v>53</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="AF7" s="2" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="AG7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1919,10 +1954,10 @@
         <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1945,37 +1980,40 @@
         <v>53</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="AF8" s="2" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="AG8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -1999,10 +2037,10 @@
         <v>69</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2025,26 +2063,29 @@
         <v>53</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="AF9" s="2" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="AG9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI9" s="4"/>
+    </row>
+    <row r="10" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2100,17 +2141,20 @@
         <v>53</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2166,17 +2210,20 @@
         <v>53</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2187,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2199,7 +2246,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J12" s="4">
         <v>16</v>
@@ -2207,10 +2254,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2233,20 +2280,23 @@
         <v>54</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="AF12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI12" s="4"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2257,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2269,7 +2319,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J13" s="4">
         <v>20</v>
@@ -2277,13 +2327,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2306,20 +2356,23 @@
         <v>54</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="AF13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2330,10 +2383,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2342,7 +2395,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J14" s="4">
         <v>20</v>
@@ -2350,13 +2403,13 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2379,34 +2432,37 @@
         <v>54</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="AF14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI14" s="4"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2415,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J15" s="4">
         <v>18</v>
@@ -2426,13 +2482,13 @@
         <v>70</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2455,37 +2511,40 @@
         <v>53</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="AF15" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="AG15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI15" s="4"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2494,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J16" s="4">
         <v>18</v>
@@ -2505,13 +2564,13 @@
         <v>70</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2534,23 +2593,26 @@
         <v>53</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE16" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="AF16" s="2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="AG16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2561,10 +2623,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2573,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J17" s="4">
         <v>18</v>
@@ -2584,13 +2646,13 @@
         <v>70</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2613,23 +2675,26 @@
         <v>53</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="AF17" s="2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="AG17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI17" s="4"/>
+    </row>
+    <row r="18" spans="2:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2640,10 +2705,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2652,7 +2717,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="4">
         <v>18</v>
@@ -2663,13 +2728,13 @@
         <v>70</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2692,154 +2757,166 @@
         <v>53</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AE18" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="AF18" s="2" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AG18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>VLOOKUP(D19,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>戟兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>VLOOKUP(D20,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>戟兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>VLOOKUP(D21,$D$6:$E$9,2,0)</f>
-        <v>刀兵</v>
+        <v>戟兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -2849,39 +2926,42 @@
         <v>枪兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2891,39 +2971,42 @@
         <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -2933,39 +3016,42 @@
         <v>枪兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4">
         <v>5</v>
@@ -2975,16 +3061,16 @@
         <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
@@ -2993,24 +3079,27 @@
         <v>69</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
@@ -3020,16 +3109,16 @@
         <v>骑兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
@@ -3038,24 +3127,27 @@
         <v>69</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -3065,16 +3157,16 @@
         <v>骑兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J27" s="4">
         <v>28</v>
@@ -3083,24 +3175,27 @@
         <v>69</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
@@ -3110,16 +3205,16 @@
         <v>骑兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J28" s="4">
         <v>22</v>
@@ -3128,115 +3223,124 @@
         <v>69</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE28" s="4"/>
+      <c r="AI28" s="4"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>弩兵</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE29" s="4"/>
+      <c r="AI29" s="4"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>弓兵</v>
+        <v>弩兵</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AH39" s="4"/>
-    </row>
-    <row r="40" spans="2:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE39" s="4"/>
+      <c r="AI39" s="4"/>
+    </row>
+    <row r="40" spans="2:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3254,10 +3358,10 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AH40" s="4"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE40" s="4"/>
+      <c r="AI40" s="4"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3275,162 +3379,162 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AH41" s="4"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE41" s="4"/>
+      <c r="AI41" s="4"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AH42" s="4"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE42" s="4"/>
+      <c r="AI42" s="4"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AH43" s="4"/>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE43" s="4"/>
+      <c r="AI43" s="4"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AH44" s="4"/>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE44" s="4"/>
+      <c r="AI44" s="4"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AH45" s="4"/>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE45" s="4"/>
+      <c r="AI45" s="4"/>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE46" s="4"/>
+      <c r="AI46" s="4"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AH47" s="4"/>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AE47" s="4"/>
+      <c r="AI47" s="4"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AH48" s="4"/>
-    </row>
-    <row r="49" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE48" s="4"/>
+      <c r="AI48" s="4"/>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="AD49" s="4"/>
-    </row>
-    <row r="50" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="AD50" s="4"/>
-    </row>
-    <row r="51" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE50" s="4"/>
+    </row>
+    <row r="51" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="AD51" s="4"/>
-    </row>
-    <row r="52" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE51" s="4"/>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="AD52" s="4"/>
-    </row>
-    <row r="53" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE52" s="4"/>
+    </row>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="AD53" s="4"/>
-    </row>
-    <row r="54" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE53" s="4"/>
+    </row>
+    <row r="54" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="AD54" s="4"/>
-    </row>
-    <row r="55" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE54" s="4"/>
+    </row>
+    <row r="55" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="AD55" s="4"/>
-    </row>
-    <row r="56" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE55" s="4"/>
+    </row>
+    <row r="56" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="AD56" s="4"/>
-    </row>
-    <row r="57" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE56" s="4"/>
+    </row>
+    <row r="57" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="AD57" s="4"/>
-    </row>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE57" s="4"/>
+    </row>
+    <row r="58" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="AD58" s="4"/>
-    </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE58" s="4"/>
+    </row>
+    <row r="59" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="AD59" s="4"/>
-    </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE59" s="4"/>
+    </row>
+    <row r="60" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="AD60" s="4"/>
-    </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE60" s="4"/>
+    </row>
+    <row r="61" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="AD61" s="4"/>
-    </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE61" s="4"/>
+    </row>
+    <row r="62" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="AD62" s="4"/>
-    </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE62" s="4"/>
+    </row>
+    <row r="63" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="AD63" s="4"/>
-    </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE63" s="4"/>
+    </row>
+    <row r="64" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="AD64" s="4"/>
-    </row>
-    <row r="65" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE64" s="4"/>
+    </row>
+    <row r="65" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="AD65" s="4"/>
-    </row>
-    <row r="66" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE65" s="4"/>
+    </row>
+    <row r="66" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="AD66" s="4"/>
-    </row>
-    <row r="67" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE66" s="4"/>
+    </row>
+    <row r="67" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="AD67" s="4"/>
-    </row>
-    <row r="68" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE67" s="4"/>
+    </row>
+    <row r="68" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="AD68" s="4"/>
-    </row>
-    <row r="69" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE68" s="4"/>
+    </row>
+    <row r="69" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="AD69" s="4"/>
-    </row>
-    <row r="70" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE69" s="4"/>
+    </row>
+    <row r="70" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="AD70" s="4"/>
-    </row>
-    <row r="71" spans="4:30" x14ac:dyDescent="0.15">
+      <c r="AE70" s="4"/>
+    </row>
+    <row r="71" spans="4:31" x14ac:dyDescent="0.15">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>

--- a/Data/Export/Common/TroopType_部队类型.xlsx
+++ b/Data/Export/Common/TroopType_部队类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20E8E5-8CD4-40FE-9138-6D4E32AFD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708624E-64F9-43D5-980B-A02F1DF4A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="2370" windowWidth="16620" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTypes" sheetId="36" r:id="rId1"/>
@@ -401,10 +401,6 @@
     <t>costItems</t>
   </si>
   <si>
-    <t>杂兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陷阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,6 +787,10 @@
   </si>
   <si>
     <t>伏兵计略暴击率加成</t>
+  </si>
+  <si>
+    <t>剑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB12" sqref="AB12"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,7 +1348,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>43</v>
@@ -1363,16 +1363,16 @@
         <v>64</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>90</v>
@@ -1405,7 +1405,7 @@
         <v>49</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>62</v>
@@ -1505,13 +1505,13 @@
         <v>73</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>96</v>
@@ -1547,10 +1547,10 @@
         <v>52</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
@@ -1651,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>63</v>
@@ -1677,13 +1677,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>65</v>
@@ -1739,10 +1739,10 @@
         <v>27</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH5" s="2" t="s">
         <v>61</v>
@@ -1764,7 +1764,7 @@
         <v>94</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="4">
         <v>95</v>
@@ -1788,10 +1788,10 @@
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1814,7 +1814,7 @@
         <v>53</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>66</v>
@@ -1823,10 +1823,10 @@
         <v>28</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH6" s="2" t="s">
         <v>60</v>
@@ -1838,16 +1838,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -1871,10 +1871,10 @@
         <v>67</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1897,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>66</v>
@@ -1906,10 +1906,10 @@
         <v>29</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH7" s="2" t="s">
         <v>57</v>
@@ -1921,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4">
         <v>85</v>
@@ -1954,10 +1954,10 @@
         <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1989,10 +1989,10 @@
         <v>30</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>59</v>
@@ -2013,7 +2013,7 @@
         <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="4">
         <v>105</v>
@@ -2037,10 +2037,10 @@
         <v>69</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2063,22 +2063,22 @@
         <v>53</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AE9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>58</v>
@@ -2141,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>66</v>
@@ -2150,7 +2150,7 @@
         <v>39</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI10" s="4"/>
     </row>
@@ -2210,7 +2210,7 @@
         <v>53</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>66</v>
@@ -2219,7 +2219,7 @@
         <v>40</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI11" s="4"/>
     </row>
@@ -2234,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="4">
         <v>70</v>
@@ -2246,7 +2246,7 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="4">
         <v>16</v>
@@ -2254,10 +2254,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2280,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>66</v>
@@ -2289,10 +2289,10 @@
         <v>36</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI12" s="4"/>
     </row>
@@ -2307,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -2319,7 +2319,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="4">
         <v>20</v>
@@ -2327,13 +2327,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2356,7 +2356,7 @@
         <v>54</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>66</v>
@@ -2365,10 +2365,10 @@
         <v>37</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI13" s="4"/>
     </row>
@@ -2383,10 +2383,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2395,7 +2395,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="4">
         <v>20</v>
@@ -2403,13 +2403,13 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2432,7 +2432,7 @@
         <v>54</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>66</v>
@@ -2441,10 +2441,10 @@
         <v>38</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI14" s="4"/>
     </row>
@@ -2453,16 +2453,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="4">
         <v>70</v>
@@ -2471,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="4">
         <v>18</v>
@@ -2482,13 +2482,13 @@
         <v>70</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2511,7 +2511,7 @@
         <v>53</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>66</v>
@@ -2520,10 +2520,10 @@
         <v>32</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>58</v>
@@ -2535,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="4">
         <v>90</v>
@@ -2553,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="4">
         <v>18</v>
@@ -2564,13 +2564,13 @@
         <v>70</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2593,7 +2593,7 @@
         <v>53</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>66</v>
@@ -2602,10 +2602,10 @@
         <v>35</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH16" s="2" t="s">
         <v>57</v>
@@ -2623,10 +2623,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="4">
         <v>80</v>
@@ -2635,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="4">
         <v>18</v>
@@ -2646,13 +2646,13 @@
         <v>70</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2675,7 +2675,7 @@
         <v>53</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>66</v>
@@ -2684,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>58</v>
@@ -2705,10 +2705,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2717,7 +2717,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="4">
         <v>18</v>
@@ -2728,13 +2728,13 @@
         <v>70</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2757,7 +2757,7 @@
         <v>53</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>66</v>
@@ -2766,10 +2766,10 @@
         <v>34</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>58</v>
@@ -2781,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -2791,34 +2791,34 @@
         <v>戟兵</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O19" s="4">
         <v>8</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.15">
@@ -2826,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2836,34 +2836,34 @@
         <v>戟兵</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O20" s="4">
         <v>13</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.15">
@@ -2871,7 +2871,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -2881,34 +2881,34 @@
         <v>戟兵</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O21" s="4">
         <v>16</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.15">
@@ -2916,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -2926,34 +2926,34 @@
         <v>枪兵</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O22" s="4">
         <v>9</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.15">
@@ -2961,7 +2961,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2971,34 +2971,34 @@
         <v>枪兵</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O23" s="4">
         <v>10</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -3016,34 +3016,34 @@
         <v>枪兵</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O24" s="4">
         <v>12</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.15">
@@ -3051,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
         <v>5</v>
@@ -3061,16 +3061,16 @@
         <v>骑兵</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J25" s="4">
         <v>28</v>
@@ -3079,19 +3079,19 @@
         <v>69</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O25" s="4">
         <v>11</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.15">
@@ -3099,7 +3099,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
@@ -3109,16 +3109,16 @@
         <v>骑兵</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="4">
         <v>28</v>
@@ -3127,19 +3127,19 @@
         <v>69</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O26" s="4">
         <v>14</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.15">
@@ -3147,7 +3147,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -3157,16 +3157,16 @@
         <v>骑兵</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="4">
         <v>28</v>
@@ -3175,19 +3175,19 @@
         <v>69</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="4">
         <v>15</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.15">
@@ -3195,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4">
         <v>5</v>
@@ -3205,16 +3205,16 @@
         <v>骑兵</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="4">
         <v>22</v>
@@ -3223,19 +3223,19 @@
         <v>69</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" s="4">
         <v>17</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AI28" s="4"/>
@@ -3245,7 +3245,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
@@ -3255,34 +3255,34 @@
         <v>弩兵</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE29" s="4"/>
       <c r="AI29" s="4"/>
@@ -3292,7 +3292,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
@@ -3302,34 +3302,34 @@
         <v>弩兵</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.15">
